--- a/test_kin.xlsx
+++ b/test_kin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Documents\GitHub\ML-GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD20C7BC-7C59-4BF3-9E35-D3FF929EBCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC8D105-4081-41C0-B53E-0A1D9173C501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="699" xr2:uid="{0C2C1BC4-E9C6-4B2C-94CC-003F83AF3EDF}"/>
   </bookViews>
@@ -429,7 +429,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D2" sqref="D2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,7 +486,7 @@
         <v>0.33333000000000002</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E2">
         <v>-8</v>
@@ -515,7 +515,7 @@
         <v>0.33333000000000002</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E3">
         <v>-8</v>
@@ -544,7 +544,7 @@
         <v>0.33333000000000002</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E4">
         <v>-8</v>
@@ -573,7 +573,7 @@
         <v>0.33333000000000002</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E5">
         <v>-8</v>
@@ -602,7 +602,7 @@
         <v>0.33333000000000002</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E6">
         <v>-8</v>
@@ -631,7 +631,7 @@
         <v>0.33333000000000002</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E7">
         <v>-8</v>
@@ -660,7 +660,7 @@
         <v>0.33333000000000002</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E8">
         <v>-8</v>
@@ -689,7 +689,7 @@
         <v>0.33333000000000002</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E9">
         <v>-8</v>
@@ -718,7 +718,7 @@
         <v>0.33333000000000002</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E10">
         <v>-8</v>
@@ -747,7 +747,7 @@
         <v>0.33333000000000002</v>
       </c>
       <c r="D11">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E11">
         <v>-8</v>
@@ -776,7 +776,7 @@
         <v>0.33333000000000002</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E12">
         <v>-8</v>
@@ -805,7 +805,7 @@
         <v>0.33333000000000002</v>
       </c>
       <c r="D13">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E13">
         <v>-8</v>
